--- a/ensemble_algorithm/table/digits.xlsx
+++ b/ensemble_algorithm/table/digits.xlsx
@@ -477,25 +477,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5000005359401463</v>
+        <v>0.6765226059553668</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7320020580101614</v>
+        <v>0.7503794456235127</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7012916157523528</v>
+        <v>0.5783260445473448</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7654114948442559</v>
+        <v>0.7275500032156409</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9277365103865201</v>
+        <v>0.8512916157523529</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6877478723176196</v>
+        <v>0.9331757669303492</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9639247968786847</v>
+        <v>0.9580182005273651</v>
       </c>
     </row>
     <row r="3">
@@ -505,25 +505,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.402778313717924</v>
+        <v>0.5749179357990764</v>
       </c>
       <c r="C3" t="n">
-        <v>0.639196469137405</v>
+        <v>0.773509485094851</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6010279826718182</v>
+        <v>0.4255077940481813</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7571401580212985</v>
+        <v>0.7298889987835011</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9520572450805009</v>
+        <v>0.8444771808578586</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5598804608268311</v>
+        <v>0.9268683373332589</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9383825417201541</v>
+        <v>0.9455607781694738</v>
       </c>
     </row>
     <row r="4">
@@ -533,25 +533,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8</v>
+        <v>0.7782282282282282</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7334834834834835</v>
+        <v>0.9294294294294294</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7723723723723724</v>
+        <v>0.4779279279279279</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9782282282282282</v>
+        <v>0.9557057057057058</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9118618618618617</v>
+        <v>0.9666666666666668</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8</v>
+        <v>0.9561561561561561</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9945945945945945</v>
+        <v>0.9836336336336335</v>
       </c>
     </row>
     <row r="5">
@@ -561,25 +561,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5357915604644576</v>
+        <v>0.6437267333589276</v>
       </c>
       <c r="C5" t="n">
-        <v>0.668234661560186</v>
+        <v>0.813193795336191</v>
       </c>
       <c r="D5" t="n">
-        <v>0.658896528308293</v>
+        <v>0.403771460737405</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8334880423862916</v>
+        <v>0.8022874455317712</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9242066474612587</v>
+        <v>0.8864833028015779</v>
       </c>
       <c r="G5" t="n">
-        <v>0.649166683691066</v>
+        <v>0.936762799132957</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9655273735273736</v>
+        <v>0.9619090691092028</v>
       </c>
     </row>
   </sheetData>
